--- a/ResultadoEleicoesDistritos/AVEIRO_CASTELO DE PAIVA.xlsx
+++ b/ResultadoEleicoesDistritos/AVEIRO_CASTELO DE PAIVA.xlsx
@@ -597,64 +597,64 @@
         <v>4204</v>
       </c>
       <c r="H2" t="n">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="I2" t="n">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="J2" t="n">
-        <v>1757</v>
+        <v>1798</v>
       </c>
       <c r="K2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L2" t="n">
-        <v>473</v>
+        <v>458</v>
       </c>
       <c r="M2" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="N2" t="n">
-        <v>306</v>
+        <v>337</v>
       </c>
       <c r="O2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="Q2" t="n">
         <v>1</v>
       </c>
       <c r="R2" t="n">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="S2" t="n">
-        <v>190</v>
+        <v>169</v>
       </c>
       <c r="T2" t="n">
-        <v>290</v>
+        <v>266</v>
       </c>
       <c r="U2" t="n">
         <v>30</v>
       </c>
       <c r="V2" t="n">
-        <v>2663</v>
+        <v>2664</v>
       </c>
       <c r="W2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>2730</v>
+        <v>2693</v>
       </c>
       <c r="Y2" t="n">
         <v>3</v>
       </c>
       <c r="Z2" t="n">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AA2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
